--- a/装备属性代码.xlsx
+++ b/装备属性代码.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="属性代码解析" sheetId="1" r:id="rId1"/>
     <sheet name="装备组合 - 轻装" sheetId="2" r:id="rId2"/>
+    <sheet name="装备组合 - 蜗牛" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="263">
   <si>
     <t>随机转移</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -934,6 +935,57 @@
   </si>
   <si>
     <t>魔法威力加强</t>
+  </si>
+  <si>
+    <t>激光弹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程武器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹药</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性-7</t>
+  </si>
+  <si>
+    <t>属性-8</t>
+  </si>
+  <si>
+    <t>属性-9</t>
+  </si>
+  <si>
+    <t>属性-10</t>
+  </si>
+  <si>
+    <t>属性-11</t>
+  </si>
+  <si>
+    <t>属性-12</t>
+  </si>
+  <si>
+    <t>属性-13</t>
+  </si>
+  <si>
+    <t>属性-14</t>
+  </si>
+  <si>
+    <t>属性-15</t>
+  </si>
+  <si>
+    <t>抗性-出血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机关枪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,7 +1067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1439,6 +1491,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1452,7 +1752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1472,6 +1772,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,136 +1919,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1923,7 +2307,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2993,32 +3377,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -3026,810 +3410,793 @@
       <c r="E1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="11"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D2" s="5"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="11"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="4:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D3" s="5"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="49"/>
+      <c r="H3" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="11"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D4" s="5"/>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="12">
         <v>60016</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="12">
         <v>60013</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="12">
         <v>60011</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="12">
         <v>60012</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="12">
         <v>60010</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="8">
         <v>60018</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D5" s="5"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="12">
         <v>20053</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="12">
         <v>20054</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="12">
         <v>20060</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="12">
         <v>20059</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="12">
         <v>20061</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="8">
         <v>20056</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D6" s="5"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="12">
         <v>20050</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="12">
         <v>32</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="12">
         <v>20051</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="12">
         <v>59</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="12">
         <v>20052</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="8">
         <v>43</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="5"/>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="12">
         <v>35</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="12">
         <v>30</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="12">
         <v>52</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="12">
         <v>25</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="12">
         <v>55</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="8">
         <v>29</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="Q7" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D8" s="5"/>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="16">
         <v>33</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="16">
         <v>27</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="16">
         <v>48</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="16">
         <v>24</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="16">
         <v>54</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="18">
         <v>26</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="4:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="36" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D13" s="5"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="44"/>
+      <c r="J13" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="4:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="44" t="s">
+      <c r="I14" s="32"/>
+      <c r="J14" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D15" s="5"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>60017</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="12">
         <v>60014</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="7">
         <v>60019</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D16" s="5"/>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>60015</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="12">
         <v>20058</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="7">
         <v>20055</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D17" s="5"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>20057</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="12">
         <v>50</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="7">
         <v>51</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D18" s="5"/>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>56</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="12">
         <v>39</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="7">
         <v>42</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>53</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="12">
         <v>31</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="7">
         <v>41</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D20" s="5"/>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="23">
         <v>44</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="16">
         <v>23</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="23">
         <v>28</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.15">
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="37"/>
+      <c r="H24" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="47" t="s">
+      <c r="I24" s="37"/>
+      <c r="J24" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49" t="s">
+      <c r="K24" s="37"/>
+      <c r="L24" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D25" s="5"/>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="14" t="s">
+      <c r="I25" s="28"/>
+      <c r="J25" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="50" t="s">
+      <c r="K25" s="28"/>
+      <c r="L25" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D26" s="5"/>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="51" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="51" t="s">
+      <c r="I26" s="30"/>
+      <c r="J26" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="11"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D27" s="5"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="12">
         <v>70061</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="12">
         <v>70060</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="12">
         <v>70058</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="11"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D28" s="5"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="12">
         <v>70059</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="12">
         <v>70056</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="12">
         <v>70054</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="11"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D29" s="5"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="12">
         <v>70057</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="12">
         <v>70055</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="12">
         <v>70053</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="11"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D30" s="5"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="12">
         <v>61</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="12">
         <v>57</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="12">
         <v>70052</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="11"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D31" s="5"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="12">
         <v>40</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="12">
         <v>38</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="12">
         <v>58</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="K31" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="11"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.15">
       <c r="D32" s="5"/>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="16">
         <v>36</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="16">
         <v>34</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="11"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="5:12" x14ac:dyDescent="0.15">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -3837,14 +4204,914 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="54"/>
+      <c r="J1" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="42"/>
+      <c r="N1" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" s="47"/>
+    </row>
+    <row r="3" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="51"/>
+      <c r="N3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3" s="35"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D4" s="5"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D5" s="5"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D6" s="5"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" s="10">
+        <v>39</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="25"/>
+      <c r="J9" s="10">
+        <v>50</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="77"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="12">
+        <v>70061</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="12">
+        <v>70060</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="12">
+        <v>70058</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="J10" s="10">
+        <v>54</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="12">
+        <v>70059</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="12">
+        <v>70056</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="12">
+        <v>70054</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="J11" s="10">
+        <v>60018</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="12">
+        <v>70057</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="12">
+        <v>70055</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="12">
+        <v>70053</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="12">
+        <v>61</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="12">
+        <v>57</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="12">
+        <v>70052</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="12">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="12">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="12">
+        <v>58</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="16">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="16">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="26"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D16" s="5"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F21" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="73"/>
+      <c r="I21" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="73"/>
+      <c r="K21" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="L21" s="54"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F22" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="4:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F23" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="76"/>
+      <c r="I23" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="J23" s="56"/>
+      <c r="K23" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D24" s="5"/>
+      <c r="F24" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="57">
+        <v>59</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="58">
+        <v>20061</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="K24" s="58">
+        <v>60019</v>
+      </c>
+      <c r="L24" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D25" s="5"/>
+      <c r="F25" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="G25" s="60">
+        <v>56</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="78">
+        <v>20060</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="61">
+        <v>60017</v>
+      </c>
+      <c r="L25" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D26" s="5"/>
+      <c r="F26" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="60">
+        <v>55</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="78">
+        <v>20059</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="61">
+        <v>60016</v>
+      </c>
+      <c r="L26" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D27" s="5"/>
+      <c r="F27" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="60">
+        <v>53</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="78">
+        <v>20058</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" s="61">
+        <v>60015</v>
+      </c>
+      <c r="L27" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F28" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="60">
+        <v>52</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="78">
+        <v>20057</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="61">
+        <v>60014</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F29" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="60">
+        <v>48</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="78">
+        <v>20056</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="61">
+        <v>60013</v>
+      </c>
+      <c r="L29" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="22"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F30" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="60">
+        <v>43</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="I30" s="78">
+        <v>20055</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="61">
+        <v>60012</v>
+      </c>
+      <c r="L30" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="22"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F31" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="60">
+        <v>42</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="78">
+        <v>20054</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="61">
+        <v>60011</v>
+      </c>
+      <c r="L31" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="22"/>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="F32" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="60">
+        <v>41</v>
+      </c>
+      <c r="H32" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="78">
+        <v>20053</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="61">
+        <v>60010</v>
+      </c>
+      <c r="L32" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" s="22"/>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E33" s="20"/>
+      <c r="F33" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" s="60">
+        <v>35</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="78">
+        <v>20052</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="61">
+        <v>28</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F34" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="60">
+        <v>33</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="78">
+        <v>20051</v>
+      </c>
+      <c r="J34" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="61">
+        <v>27</v>
+      </c>
+      <c r="L34" s="62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F35" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="60">
+        <v>32</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="78">
+        <v>20050</v>
+      </c>
+      <c r="J35" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="61">
+        <v>26</v>
+      </c>
+      <c r="L35" s="62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F36" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" s="60">
+        <v>31</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" s="78">
+        <v>51</v>
+      </c>
+      <c r="J36" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="61">
+        <v>25</v>
+      </c>
+      <c r="L36" s="62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F37" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="60">
+        <v>30</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="78">
+        <v>44</v>
+      </c>
+      <c r="J37" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="61">
+        <v>24</v>
+      </c>
+      <c r="L37" s="62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F38" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="63">
+        <v>29</v>
+      </c>
+      <c r="H38" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="80">
+        <v>34</v>
+      </c>
+      <c r="J38" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="64">
+        <v>23</v>
+      </c>
+      <c r="L38" s="65" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="K24:L38">
+    <sortCondition descending="1" ref="K12"/>
+  </sortState>
+  <mergeCells count="45">
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>